--- a/raw/Raw and Age-Adjusted National Mortality Rates by Urbanity (2007 - 2020).xlsx
+++ b/raw/Raw and Age-Adjusted National Mortality Rates by Urbanity (2007 - 2020).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sameernd/Desktop/CJD_Epi/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fe353eac81e08534/Desktop/CJD_Epi-master/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8A1AF282-A957-6B4D-BAE5-911680DA82CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{8A1AF282-A957-6B4D-BAE5-911680DA82CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D51E209D-6C67-472D-8712-2B54F6F1C253}"/>
   <bookViews>
-    <workbookView xWindow="12620" yWindow="500" windowWidth="27640" windowHeight="15940"/>
+    <workbookView xWindow="2580" yWindow="1032" windowWidth="17664" windowHeight="8952" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mortality Rates" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="88">
   <si>
     <t>Notes</t>
   </si>
@@ -276,12 +276,21 @@
   </si>
   <si>
     <t>Query Search:</t>
+  </si>
+  <si>
+    <t>Age Adjusted Rate Standard Error</t>
+  </si>
+  <si>
+    <t>Age Adjusted Rate Upper 95% Confidence Interval</t>
+  </si>
+  <si>
+    <t>Age Adjusted Rate Lower 95% Confidence Interval</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1134,19 +1143,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1184,10 +1193,19 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>2007</v>
       </c>
@@ -1221,11 +1239,20 @@
       <c r="L2">
         <v>7.9420000000000004E-2</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
+        <v>6.1670000000000003E-2</v>
+      </c>
+      <c r="N2">
+        <v>0.10068000000000001</v>
+      </c>
+      <c r="O2">
+        <v>9.6100000000000005E-3</v>
+      </c>
+      <c r="P2" s="1">
         <v>1.3599399999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2007</v>
       </c>
@@ -1259,11 +1286,20 @@
       <c r="L3">
         <v>0.1013</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="N3">
+        <v>0.12737000000000001</v>
+      </c>
+      <c r="O3">
+        <v>1.183E-2</v>
+      </c>
+      <c r="P3" s="1">
         <v>1.3599399999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2007</v>
       </c>
@@ -1297,11 +1333,20 @@
       <c r="L4">
         <v>7.8390000000000001E-2</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
+        <v>5.9209999999999999E-2</v>
+      </c>
+      <c r="N4">
+        <v>0.10179000000000001</v>
+      </c>
+      <c r="O4">
+        <v>1.047E-2</v>
+      </c>
+      <c r="P4" s="1">
         <v>1.04203E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2007</v>
       </c>
@@ -1335,11 +1380,20 @@
       <c r="L5">
         <v>9.0609999999999996E-2</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
+        <v>6.114E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.12936</v>
+      </c>
+      <c r="O5">
+        <v>1.6580000000000001E-2</v>
+      </c>
+      <c r="P5" s="1">
         <v>5.2985000000000003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2007</v>
       </c>
@@ -1373,11 +1427,20 @@
       <c r="L6">
         <v>0.10317999999999999</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
+        <v>7.0569999999999994E-2</v>
+      </c>
+      <c r="N6">
+        <v>0.14565</v>
+      </c>
+      <c r="O6">
+        <v>1.814E-2</v>
+      </c>
+      <c r="P6" s="1">
         <v>5.8282999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>2007</v>
       </c>
@@ -1411,11 +1474,20 @@
       <c r="L7">
         <v>0.11070000000000001</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
+        <v>7.2309999999999999E-2</v>
+      </c>
+      <c r="N7">
+        <v>0.16220999999999999</v>
+      </c>
+      <c r="O7">
+        <v>2.1690000000000001E-2</v>
+      </c>
+      <c r="P7" s="1">
         <v>4.7685999999999996E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1446,11 +1518,20 @@
       <c r="L8">
         <v>9.5259999999999997E-2</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
+        <v>8.4220000000000003E-2</v>
+      </c>
+      <c r="N8">
+        <v>0.10631</v>
+      </c>
+      <c r="O8">
+        <v>5.64E-3</v>
+      </c>
+      <c r="P8" s="1">
         <v>5.3514699999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2008</v>
       </c>
@@ -1484,11 +1565,20 @@
       <c r="L9">
         <v>0.10073</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
+        <v>8.0229999999999996E-2</v>
+      </c>
+      <c r="N9">
+        <v>0.12486999999999999</v>
+      </c>
+      <c r="O9">
+        <v>1.102E-2</v>
+      </c>
+      <c r="P9" s="1">
         <v>1.6072099999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2008</v>
       </c>
@@ -1522,11 +1612,20 @@
       <c r="L10">
         <v>0.10503999999999999</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10">
+        <v>8.2040000000000002E-2</v>
+      </c>
+      <c r="N10">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="O10">
+        <v>1.2489999999999999E-2</v>
+      </c>
+      <c r="P10" s="1">
         <v>1.3069600000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2008</v>
       </c>
@@ -1560,11 +1659,20 @@
       <c r="L11">
         <v>9.9750000000000005E-2</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11">
+        <v>7.7759999999999996E-2</v>
+      </c>
+      <c r="N11">
+        <v>0.12603</v>
+      </c>
+      <c r="O11">
+        <v>1.1939999999999999E-2</v>
+      </c>
+      <c r="P11" s="1">
         <v>1.2716399999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2008</v>
       </c>
@@ -1598,11 +1706,20 @@
       <c r="L12">
         <v>0.10884000000000001</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12">
+        <v>7.492E-2</v>
+      </c>
+      <c r="N12">
+        <v>0.15285000000000001</v>
+      </c>
+      <c r="O12">
+        <v>1.9019999999999999E-2</v>
+      </c>
+      <c r="P12" s="1">
         <v>6.1815999999999998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>2008</v>
       </c>
@@ -1636,11 +1753,20 @@
       <c r="L13">
         <v>8.2589999999999997E-2</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13">
+        <v>5.3449999999999998E-2</v>
+      </c>
+      <c r="N13">
+        <v>0.12192</v>
+      </c>
+      <c r="O13">
+        <v>1.6619999999999999E-2</v>
+      </c>
+      <c r="P13" s="1">
         <v>4.7685999999999996E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>2008</v>
       </c>
@@ -1674,11 +1800,20 @@
       <c r="L14">
         <v>0.11826</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="N14">
+        <v>0.16983999999999999</v>
+      </c>
+      <c r="O14">
+        <v>2.2020000000000001E-2</v>
+      </c>
+      <c r="P14" s="1">
         <v>5.2985000000000003E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1709,11 +1844,20 @@
       <c r="L15">
         <v>0.10211000000000001</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15">
+        <v>9.0660000000000004E-2</v>
+      </c>
+      <c r="N15">
+        <v>0.11355999999999999</v>
+      </c>
+      <c r="O15">
+        <v>5.8399999999999997E-3</v>
+      </c>
+      <c r="P15" s="1">
         <v>5.8106699999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>2009</v>
       </c>
@@ -1747,11 +1891,20 @@
       <c r="L16">
         <v>9.0289999999999995E-2</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16">
+        <v>7.1590000000000001E-2</v>
+      </c>
+      <c r="N16">
+        <v>0.11237</v>
+      </c>
+      <c r="O16">
+        <v>1.009E-2</v>
+      </c>
+      <c r="P16" s="1">
         <v>1.5188999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>2009</v>
       </c>
@@ -1785,11 +1938,20 @@
       <c r="L17">
         <v>0.10056</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17">
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="N17">
+        <v>0.12605</v>
+      </c>
+      <c r="O17">
+        <v>1.163E-2</v>
+      </c>
+      <c r="P17" s="1">
         <v>1.4482500000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>2009</v>
       </c>
@@ -1823,11 +1985,20 @@
       <c r="L18">
         <v>9.257E-2</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18">
+        <v>7.0809999999999998E-2</v>
+      </c>
+      <c r="N18">
+        <v>0.11892</v>
+      </c>
+      <c r="O18">
+        <v>1.188E-2</v>
+      </c>
+      <c r="P18" s="1">
         <v>1.1126799999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>2009</v>
       </c>
@@ -1861,11 +2032,20 @@
       <c r="L19">
         <v>8.8489999999999999E-2</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19">
+        <v>5.926E-2</v>
+      </c>
+      <c r="N19">
+        <v>0.12709000000000001</v>
+      </c>
+      <c r="O19">
+        <v>1.6389999999999998E-2</v>
+      </c>
+      <c r="P19" s="1">
         <v>5.2985000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2009</v>
       </c>
@@ -1899,11 +2079,20 @@
       <c r="L20">
         <v>0.1114</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20">
+        <v>7.8439999999999996E-2</v>
+      </c>
+      <c r="N20">
+        <v>0.15356</v>
+      </c>
+      <c r="O20">
+        <v>1.8350000000000002E-2</v>
+      </c>
+      <c r="P20" s="1">
         <v>6.7114000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>2009</v>
       </c>
@@ -1937,11 +2126,20 @@
       <c r="L21">
         <v>7.4759999999999993E-2</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21">
+        <v>4.5670000000000002E-2</v>
+      </c>
+      <c r="N21">
+        <v>0.11547</v>
+      </c>
+      <c r="O21">
+        <v>1.653E-2</v>
+      </c>
+      <c r="P21" s="1">
         <v>4.0622000000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1972,11 +2170,20 @@
       <c r="L22">
         <v>8.9469999999999994E-2</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22">
+        <v>7.9409999999999994E-2</v>
+      </c>
+      <c r="N22">
+        <v>9.9540000000000003E-2</v>
+      </c>
+      <c r="O22">
+        <v>5.1399999999999996E-3</v>
+      </c>
+      <c r="P22" s="1">
         <v>5.6870400000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>2010</v>
       </c>
@@ -2010,11 +2217,20 @@
       <c r="L23">
         <v>0.10032000000000001</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23">
+        <v>8.0869999999999997E-2</v>
+      </c>
+      <c r="N23">
+        <v>0.12303</v>
+      </c>
+      <c r="O23">
+        <v>1.047E-2</v>
+      </c>
+      <c r="P23" s="1">
         <v>1.6778499999999998E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>2010</v>
       </c>
@@ -2048,11 +2264,20 @@
       <c r="L24">
         <v>0.1079</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24">
+        <v>8.6540000000000006E-2</v>
+      </c>
+      <c r="N24">
+        <v>0.13294</v>
+      </c>
+      <c r="O24">
+        <v>1.153E-2</v>
+      </c>
+      <c r="P24" s="1">
         <v>1.5895400000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>2010</v>
       </c>
@@ -2086,11 +2311,20 @@
       <c r="L25">
         <v>0.10244</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25">
+        <v>8.0149999999999999E-2</v>
+      </c>
+      <c r="N25">
+        <v>0.129</v>
+      </c>
+      <c r="O25">
+        <v>1.2030000000000001E-2</v>
+      </c>
+      <c r="P25" s="1">
         <v>1.3069600000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>2010</v>
       </c>
@@ -2124,11 +2358,20 @@
       <c r="L26">
         <v>0.11824999999999999</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26">
+        <v>8.4089999999999998E-2</v>
+      </c>
+      <c r="N26">
+        <v>0.16166</v>
+      </c>
+      <c r="O26">
+        <v>1.9019999999999999E-2</v>
+      </c>
+      <c r="P26" s="1">
         <v>7.2413E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>2010</v>
       </c>
@@ -2162,11 +2405,20 @@
       <c r="L27">
         <v>0.11239</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27">
+        <v>7.6869999999999994E-2</v>
+      </c>
+      <c r="N27">
+        <v>0.15866</v>
+      </c>
+      <c r="O27">
+        <v>2.001E-2</v>
+      </c>
+      <c r="P27" s="1">
         <v>6.0048999999999996E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>2010</v>
       </c>
@@ -2200,11 +2452,20 @@
       <c r="L28">
         <v>6.9139999999999993E-2</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28">
+        <v>4.2229999999999997E-2</v>
+      </c>
+      <c r="N28">
+        <v>0.10679</v>
+      </c>
+      <c r="O28">
+        <v>1.5270000000000001E-2</v>
+      </c>
+      <c r="P28" s="1">
         <v>3.8855999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -2235,11 +2496,20 @@
       <c r="L29">
         <v>9.9750000000000005E-2</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29">
+        <v>8.9209999999999998E-2</v>
+      </c>
+      <c r="N29">
+        <v>0.11029</v>
+      </c>
+      <c r="O29">
+        <v>5.3800000000000002E-3</v>
+      </c>
+      <c r="P29" s="1">
         <v>6.2875299999999995E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>2011</v>
       </c>
@@ -2273,11 +2543,20 @@
       <c r="L30">
         <v>8.9230000000000004E-2</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30">
+        <v>7.127E-2</v>
+      </c>
+      <c r="N30">
+        <v>0.11033</v>
+      </c>
+      <c r="O30">
+        <v>9.6600000000000002E-3</v>
+      </c>
+      <c r="P30" s="1">
         <v>1.5718800000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>2011</v>
       </c>
@@ -2311,11 +2590,20 @@
       <c r="L31">
         <v>9.665E-2</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31">
+        <v>7.6630000000000004E-2</v>
+      </c>
+      <c r="N31">
+        <v>0.12028</v>
+      </c>
+      <c r="O31">
+        <v>1.0789999999999999E-2</v>
+      </c>
+      <c r="P31" s="1">
         <v>1.50124E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>2011</v>
       </c>
@@ -2349,11 +2637,20 @@
       <c r="L32">
         <v>0.13333999999999999</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32">
+        <v>0.10687000000000001</v>
+      </c>
+      <c r="N32">
+        <v>0.1598</v>
+      </c>
+      <c r="O32">
+        <v>1.35E-2</v>
+      </c>
+      <c r="P32" s="1">
         <v>1.7838199999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>2011</v>
       </c>
@@ -2387,11 +2684,20 @@
       <c r="L33">
         <v>0.11728</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33">
+        <v>8.0729999999999996E-2</v>
+      </c>
+      <c r="N33">
+        <v>0.16471</v>
+      </c>
+      <c r="O33">
+        <v>2.044E-2</v>
+      </c>
+      <c r="P33" s="1">
         <v>7.0645999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>2011</v>
       </c>
@@ -2425,11 +2731,20 @@
       <c r="L34">
         <v>0.12841</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34">
+        <v>8.8389999999999996E-2</v>
+      </c>
+      <c r="N34">
+        <v>0.18032999999999999</v>
+      </c>
+      <c r="O34">
+        <v>2.2360000000000001E-2</v>
+      </c>
+      <c r="P34" s="1">
         <v>7.0645999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>2011</v>
       </c>
@@ -2463,11 +2778,20 @@
       <c r="L35">
         <v>9.5589999999999994E-2</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35">
+        <v>6.2990000000000004E-2</v>
+      </c>
+      <c r="N35">
+        <v>0.13908000000000001</v>
+      </c>
+      <c r="O35">
+        <v>1.8519999999999998E-2</v>
+      </c>
+      <c r="P35" s="1">
         <v>4.9452000000000003E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -2498,11 +2822,20 @@
       <c r="L36">
         <v>0.10692</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36">
+        <v>9.5890000000000003E-2</v>
+      </c>
+      <c r="N36">
+        <v>0.11795</v>
+      </c>
+      <c r="O36">
+        <v>5.6299999999999996E-3</v>
+      </c>
+      <c r="P36" s="1">
         <v>6.7643900000000007E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>2012</v>
       </c>
@@ -2536,11 +2869,20 @@
       <c r="L37">
         <v>8.7919999999999998E-2</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37">
+        <v>7.0129999999999998E-2</v>
+      </c>
+      <c r="N37">
+        <v>0.10885</v>
+      </c>
+      <c r="O37">
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="P37" s="1">
         <v>1.6072099999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>2012</v>
       </c>
@@ -2574,11 +2916,20 @@
       <c r="L38">
         <v>0.10324999999999999</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38">
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="N38">
+        <v>0.12736</v>
+      </c>
+      <c r="O38">
+        <v>1.1050000000000001E-2</v>
+      </c>
+      <c r="P38" s="1">
         <v>1.6601899999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>2012</v>
       </c>
@@ -2612,11 +2963,20 @@
       <c r="L39">
         <v>8.4709999999999994E-2</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39">
+        <v>6.565E-2</v>
+      </c>
+      <c r="N39">
+        <v>0.10758</v>
+      </c>
+      <c r="O39">
+        <v>1.0319999999999999E-2</v>
+      </c>
+      <c r="P39" s="1">
         <v>1.2716399999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>2012</v>
       </c>
@@ -2650,11 +3010,20 @@
       <c r="L40">
         <v>9.0609999999999996E-2</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40">
+        <v>6.021E-2</v>
+      </c>
+      <c r="N40">
+        <v>0.13095999999999999</v>
+      </c>
+      <c r="O40">
+        <v>1.7229999999999999E-2</v>
+      </c>
+      <c r="P40" s="1">
         <v>5.6517E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>2012</v>
       </c>
@@ -2688,11 +3057,20 @@
       <c r="L41">
         <v>7.0529999999999995E-2</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41">
+        <v>4.564E-2</v>
+      </c>
+      <c r="N41">
+        <v>0.10410999999999999</v>
+      </c>
+      <c r="O41">
+        <v>1.401E-2</v>
+      </c>
+      <c r="P41" s="1">
         <v>4.9452000000000003E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>2012</v>
       </c>
@@ -2726,11 +3104,20 @@
       <c r="L42">
         <v>7.1779999999999997E-2</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42">
+        <v>4.3220000000000001E-2</v>
+      </c>
+      <c r="N42">
+        <v>0.11209</v>
+      </c>
+      <c r="O42">
+        <v>1.6279999999999999E-2</v>
+      </c>
+      <c r="P42" s="1">
         <v>3.7088999999999998E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -2761,11 +3148,20 @@
       <c r="L43">
         <v>9.2160000000000006E-2</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43">
+        <v>8.1970000000000001E-2</v>
+      </c>
+      <c r="N43">
+        <v>0.10235</v>
+      </c>
+      <c r="O43">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="P43" s="1">
         <v>5.9696199999999998E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>2013</v>
       </c>
@@ -2799,11 +3195,20 @@
       <c r="L44">
         <v>9.2160000000000006E-2</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44">
+        <v>7.3580000000000007E-2</v>
+      </c>
+      <c r="N44">
+        <v>0.11074000000000001</v>
+      </c>
+      <c r="O44">
+        <v>9.4800000000000006E-3</v>
+      </c>
+      <c r="P44" s="1">
         <v>1.8544700000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>2013</v>
       </c>
@@ -2837,11 +3242,20 @@
       <c r="L45">
         <v>0.11515</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="N45">
+        <v>0.13791</v>
+      </c>
+      <c r="O45">
+        <v>1.1610000000000001E-2</v>
+      </c>
+      <c r="P45" s="1">
         <v>1.9427799999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>2013</v>
       </c>
@@ -2875,11 +3289,20 @@
       <c r="L46">
         <v>0.11437</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46">
+        <v>9.0829999999999994E-2</v>
+      </c>
+      <c r="N46">
+        <v>0.14215</v>
+      </c>
+      <c r="O46">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="P46" s="1">
         <v>1.50124E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>2013</v>
       </c>
@@ -2913,11 +3336,20 @@
       <c r="L47">
         <v>0.18448999999999999</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47">
+        <v>0.14008999999999999</v>
+      </c>
+      <c r="N47">
+        <v>0.23849000000000001</v>
+      </c>
+      <c r="O47">
+        <v>2.4309999999999998E-2</v>
+      </c>
+      <c r="P47" s="1">
         <v>1.0773599999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>2013</v>
       </c>
@@ -2951,11 +3383,20 @@
       <c r="L48">
         <v>6.6280000000000006E-2</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48">
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="N48">
+        <v>9.7119999999999998E-2</v>
+      </c>
+      <c r="O48">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="P48" s="1">
         <v>5.1219000000000004E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>2013</v>
       </c>
@@ -2989,11 +3430,20 @@
       <c r="L49">
         <v>0.12648999999999999</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49">
+        <v>8.8590000000000002E-2</v>
+      </c>
+      <c r="N49">
+        <v>0.17512</v>
+      </c>
+      <c r="O49">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="P49" s="1">
         <v>6.7114000000000002E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -3024,11 +3474,20 @@
       <c r="L50">
         <v>0.10618</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50">
+        <v>9.5659999999999995E-2</v>
+      </c>
+      <c r="N50">
+        <v>0.11670999999999999</v>
+      </c>
+      <c r="O50">
+        <v>5.3699999999999998E-3</v>
+      </c>
+      <c r="P50" s="1">
         <v>7.5591699999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>2014</v>
       </c>
@@ -3062,11 +3521,20 @@
       <c r="L51">
         <v>0.10285</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51">
+        <v>8.3040000000000003E-2</v>
+      </c>
+      <c r="N51">
+        <v>0.12266000000000001</v>
+      </c>
+      <c r="O51">
+        <v>1.0109999999999999E-2</v>
+      </c>
+      <c r="P51" s="1">
         <v>1.92511E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>2014</v>
       </c>
@@ -3100,11 +3568,20 @@
       <c r="L52">
         <v>0.10847</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52">
+        <v>8.7349999999999997E-2</v>
+      </c>
+      <c r="N52">
+        <v>0.12959999999999999</v>
+      </c>
+      <c r="O52">
+        <v>1.078E-2</v>
+      </c>
+      <c r="P52" s="1">
         <v>1.8544700000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>2014</v>
       </c>
@@ -3138,11 +3615,20 @@
       <c r="L53">
         <v>0.10113</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53">
+        <v>8.0549999999999997E-2</v>
+      </c>
+      <c r="N53">
+        <v>0.12537000000000001</v>
+      </c>
+      <c r="O53">
+        <v>1.108E-2</v>
+      </c>
+      <c r="P53" s="1">
         <v>1.53656E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>2014</v>
       </c>
@@ -3176,11 +3662,20 @@
       <c r="L54">
         <v>0.10785</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54">
+        <v>7.5539999999999996E-2</v>
+      </c>
+      <c r="N54">
+        <v>0.14932000000000001</v>
+      </c>
+      <c r="O54">
+        <v>1.797E-2</v>
+      </c>
+      <c r="P54" s="1">
         <v>7.0645999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>2014</v>
       </c>
@@ -3214,11 +3709,20 @@
       <c r="L55">
         <v>0.10267999999999999</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M55">
+        <v>7.1110000000000007E-2</v>
+      </c>
+      <c r="N55">
+        <v>0.14349000000000001</v>
+      </c>
+      <c r="O55">
+        <v>1.772E-2</v>
+      </c>
+      <c r="P55" s="1">
         <v>6.3581999999999996E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>2014</v>
       </c>
@@ -3252,11 +3756,20 @@
       <c r="L56">
         <v>8.8489999999999999E-2</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="N56">
+        <v>0.13278000000000001</v>
+      </c>
+      <c r="O56">
+        <v>1.8579999999999999E-2</v>
+      </c>
+      <c r="P56" s="1">
         <v>4.4153999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -3287,11 +3800,20 @@
       <c r="L57">
         <v>0.10635</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57">
+        <v>9.572E-2</v>
+      </c>
+      <c r="N57">
+        <v>0.11698</v>
+      </c>
+      <c r="O57">
+        <v>5.4200000000000003E-3</v>
+      </c>
+      <c r="P57" s="1">
         <v>7.0999599999999996E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>2015</v>
       </c>
@@ -3325,11 +3847,20 @@
       <c r="L58">
         <v>0.1082</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58">
+        <v>8.8700000000000001E-2</v>
+      </c>
+      <c r="N58">
+        <v>0.12769</v>
+      </c>
+      <c r="O58">
+        <v>9.9500000000000005E-3</v>
+      </c>
+      <c r="P58" s="1">
         <v>2.2606899999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>2015</v>
       </c>
@@ -3363,11 +3894,20 @@
       <c r="L59">
         <v>0.11645999999999999</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M59">
+        <v>9.4769999999999993E-2</v>
+      </c>
+      <c r="N59">
+        <v>0.13814000000000001</v>
+      </c>
+      <c r="O59">
+        <v>1.106E-2</v>
+      </c>
+      <c r="P59" s="1">
         <v>2.03108E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>2015</v>
       </c>
@@ -3401,11 +3941,20 @@
       <c r="L60">
         <v>9.9010000000000001E-2</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M60">
+        <v>7.8750000000000001E-2</v>
+      </c>
+      <c r="N60">
+        <v>0.1229</v>
+      </c>
+      <c r="O60">
+        <v>1.094E-2</v>
+      </c>
+      <c r="P60" s="1">
         <v>1.5542200000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>2015</v>
       </c>
@@ -3439,11 +3988,20 @@
       <c r="L61">
         <v>0.12856000000000001</v>
       </c>
-      <c r="M61" s="1">
+      <c r="M61">
+        <v>9.4789999999999999E-2</v>
+      </c>
+      <c r="N61">
+        <v>0.17044999999999999</v>
+      </c>
+      <c r="O61">
+        <v>1.8620000000000001E-2</v>
+      </c>
+      <c r="P61" s="1">
         <v>8.8307999999999998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>2015</v>
       </c>
@@ -3477,11 +4035,20 @@
       <c r="L62">
         <v>0.10901</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62">
+        <v>7.7880000000000005E-2</v>
+      </c>
+      <c r="N62">
+        <v>0.14843999999999999</v>
+      </c>
+      <c r="O62">
+        <v>1.7180000000000001E-2</v>
+      </c>
+      <c r="P62" s="1">
         <v>7.4178999999999998E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>2015</v>
       </c>
@@ -3515,11 +4082,20 @@
       <c r="L63">
         <v>9.0579999999999994E-2</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M63">
+        <v>5.917E-2</v>
+      </c>
+      <c r="N63">
+        <v>0.13272</v>
+      </c>
+      <c r="O63">
+        <v>1.7829999999999999E-2</v>
+      </c>
+      <c r="P63" s="1">
         <v>4.7685999999999996E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -3550,11 +4126,20 @@
       <c r="L64">
         <v>0.1114</v>
       </c>
-      <c r="M64" s="1">
+      <c r="M64">
+        <v>0.10086000000000001</v>
+      </c>
+      <c r="N64">
+        <v>0.12195</v>
+      </c>
+      <c r="O64">
+        <v>5.3800000000000002E-3</v>
+      </c>
+      <c r="P64" s="1">
         <v>7.9477199999999998E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>2016</v>
       </c>
@@ -3588,11 +4173,20 @@
       <c r="L65">
         <v>9.8769999999999997E-2</v>
       </c>
-      <c r="M65" s="1">
+      <c r="M65">
+        <v>8.0490000000000006E-2</v>
+      </c>
+      <c r="N65">
+        <v>0.11704000000000001</v>
+      </c>
+      <c r="O65">
+        <v>9.3200000000000002E-3</v>
+      </c>
+      <c r="P65" s="1">
         <v>2.08407E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>2016</v>
       </c>
@@ -3626,11 +4220,20 @@
       <c r="L66">
         <v>0.14557999999999999</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M66">
+        <v>0.12137000000000001</v>
+      </c>
+      <c r="N66">
+        <v>0.16977999999999999</v>
+      </c>
+      <c r="O66">
+        <v>1.235E-2</v>
+      </c>
+      <c r="P66" s="1">
         <v>2.5432699999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>2016</v>
       </c>
@@ -3664,11 +4267,20 @@
       <c r="L67">
         <v>0.10267999999999999</v>
       </c>
-      <c r="M67" s="1">
+      <c r="M67">
+        <v>8.2350000000000007E-2</v>
+      </c>
+      <c r="N67">
+        <v>0.12651000000000001</v>
+      </c>
+      <c r="O67">
+        <v>1.0959999999999999E-2</v>
+      </c>
+      <c r="P67" s="1">
         <v>1.6072099999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>2016</v>
       </c>
@@ -3702,11 +4314,20 @@
       <c r="L68">
         <v>8.6129999999999998E-2</v>
       </c>
-      <c r="M68" s="1">
+      <c r="M68">
+        <v>5.9290000000000002E-2</v>
+      </c>
+      <c r="N68">
+        <v>0.12096</v>
+      </c>
+      <c r="O68">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="P68" s="1">
         <v>5.8282999999999998E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>2016</v>
       </c>
@@ -3740,11 +4361,20 @@
       <c r="L69">
         <v>0.12274</v>
       </c>
-      <c r="M69" s="1">
+      <c r="M69">
+        <v>8.9520000000000002E-2</v>
+      </c>
+      <c r="N69">
+        <v>0.16422999999999999</v>
+      </c>
+      <c r="O69">
+        <v>1.8239999999999999E-2</v>
+      </c>
+      <c r="P69" s="1">
         <v>8.1242999999999992E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>2016</v>
       </c>
@@ -3778,11 +4408,20 @@
       <c r="L70">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="M70" s="1">
+      <c r="M70">
+        <v>5.6239999999999998E-2</v>
+      </c>
+      <c r="N70">
+        <v>0.12615000000000001</v>
+      </c>
+      <c r="O70">
+        <v>1.6990000000000002E-2</v>
+      </c>
+      <c r="P70" s="1">
         <v>4.7685999999999996E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -3813,11 +4452,20 @@
       <c r="L71">
         <v>0.11296</v>
       </c>
-      <c r="M71" s="1">
+      <c r="M71">
+        <v>0.10245</v>
+      </c>
+      <c r="N71">
+        <v>0.12347</v>
+      </c>
+      <c r="O71">
+        <v>5.3600000000000002E-3</v>
+      </c>
+      <c r="P71" s="1">
         <v>8.1066799999999994E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>2017</v>
       </c>
@@ -3851,11 +4499,20 @@
       <c r="L72">
         <v>0.10635</v>
       </c>
-      <c r="M72" s="1">
+      <c r="M72">
+        <v>8.6209999999999995E-2</v>
+      </c>
+      <c r="N72">
+        <v>0.12648999999999999</v>
+      </c>
+      <c r="O72">
+        <v>1.0279999999999999E-2</v>
+      </c>
+      <c r="P72" s="1">
         <v>2.19004E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>2017</v>
       </c>
@@ -3889,11 +4546,20 @@
       <c r="L73">
         <v>0.12323000000000001</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M73">
+        <v>0.10113</v>
+      </c>
+      <c r="N73">
+        <v>0.14534</v>
+      </c>
+      <c r="O73">
+        <v>1.128E-2</v>
+      </c>
+      <c r="P73" s="1">
         <v>2.2606899999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>2017</v>
       </c>
@@ -3927,11 +4593,20 @@
       <c r="L74">
         <v>0.11222</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M74">
+        <v>8.9609999999999995E-2</v>
+      </c>
+      <c r="N74">
+        <v>0.13482</v>
+      </c>
+      <c r="O74">
+        <v>1.153E-2</v>
+      </c>
+      <c r="P74" s="1">
         <v>1.76616E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>2017</v>
       </c>
@@ -3965,11 +4640,20 @@
       <c r="L75">
         <v>0.10503999999999999</v>
       </c>
-      <c r="M75" s="1">
+      <c r="M75">
+        <v>7.2749999999999995E-2</v>
+      </c>
+      <c r="N75">
+        <v>0.14679</v>
+      </c>
+      <c r="O75">
+        <v>1.8030000000000001E-2</v>
+      </c>
+      <c r="P75" s="1">
         <v>6.888E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>2017</v>
       </c>
@@ -4003,11 +4687,20 @@
       <c r="L76">
         <v>0.10426000000000001</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M76">
+        <v>7.2620000000000004E-2</v>
+      </c>
+      <c r="N76">
+        <v>0.14501</v>
+      </c>
+      <c r="O76">
+        <v>1.7559999999999999E-2</v>
+      </c>
+      <c r="P76" s="1">
         <v>6.7114000000000002E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>2017</v>
       </c>
@@ -4041,11 +4734,20 @@
       <c r="L77">
         <v>9.2329999999999995E-2</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M77">
+        <v>5.9749999999999998E-2</v>
+      </c>
+      <c r="N77">
+        <v>0.1363</v>
+      </c>
+      <c r="O77">
+        <v>1.8370000000000001E-2</v>
+      </c>
+      <c r="P77" s="1">
         <v>5.1219000000000004E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -4076,11 +4778,20 @@
       <c r="L78">
         <v>0.10635</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M78">
+        <v>9.6240000000000006E-2</v>
+      </c>
+      <c r="N78">
+        <v>0.11645999999999999</v>
+      </c>
+      <c r="O78">
+        <v>5.1599999999999997E-3</v>
+      </c>
+      <c r="P78" s="1">
         <v>8.0890100000000006E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>2018</v>
       </c>
@@ -4114,11 +4825,20 @@
       <c r="L79">
         <v>0.10267999999999999</v>
       </c>
-      <c r="M79" s="1">
+      <c r="M79">
+        <v>8.3739999999999995E-2</v>
+      </c>
+      <c r="N79">
+        <v>0.12163</v>
+      </c>
+      <c r="O79">
+        <v>9.6699999999999998E-3</v>
+      </c>
+      <c r="P79" s="1">
         <v>2.1193900000000002E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>2018</v>
       </c>
@@ -4152,11 +4872,20 @@
       <c r="L80">
         <v>9.9470000000000003E-2</v>
       </c>
-      <c r="M80" s="1">
+      <c r="M80">
+        <v>8.0339999999999995E-2</v>
+      </c>
+      <c r="N80">
+        <v>0.11860999999999999</v>
+      </c>
+      <c r="O80">
+        <v>9.7599999999999996E-3</v>
+      </c>
+      <c r="P80" s="1">
         <v>2.0487499999999999E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>2018</v>
       </c>
@@ -4190,11 +4919,20 @@
       <c r="L81">
         <v>0.10929</v>
       </c>
-      <c r="M81" s="1">
+      <c r="M81">
+        <v>8.8209999999999997E-2</v>
+      </c>
+      <c r="N81">
+        <v>0.13388</v>
+      </c>
+      <c r="O81">
+        <v>1.136E-2</v>
+      </c>
+      <c r="P81" s="1">
         <v>1.7131799999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>2018</v>
       </c>
@@ -4228,11 +4966,20 @@
       <c r="L82">
         <v>0.10847</v>
       </c>
-      <c r="M82" s="1">
+      <c r="M82">
+        <v>7.6369999999999993E-2</v>
+      </c>
+      <c r="N82">
+        <v>0.14951</v>
+      </c>
+      <c r="O82">
+        <v>1.7919999999999998E-2</v>
+      </c>
+      <c r="P82" s="1">
         <v>7.5944999999999997E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>2018</v>
       </c>
@@ -4266,11 +5013,20 @@
       <c r="L83">
         <v>9.3679999999999999E-2</v>
       </c>
-      <c r="M83" s="1">
+      <c r="M83">
+        <v>6.5610000000000002E-2</v>
+      </c>
+      <c r="N83">
+        <v>0.12969</v>
+      </c>
+      <c r="O83">
+        <v>1.5679999999999999E-2</v>
+      </c>
+      <c r="P83" s="1">
         <v>6.3581999999999996E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>2018</v>
       </c>
@@ -4304,11 +5060,20 @@
       <c r="L84">
         <v>9.7489999999999993E-2</v>
       </c>
-      <c r="M84" s="1">
+      <c r="M84">
+        <v>6.2469999999999998E-2</v>
+      </c>
+      <c r="N84">
+        <v>0.14505999999999999</v>
+      </c>
+      <c r="O84">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="P84" s="1">
         <v>4.9452000000000003E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -4339,11 +5104,20 @@
       <c r="L85">
         <v>0.1048</v>
       </c>
-      <c r="M85" s="1">
+      <c r="M85">
+        <v>9.4600000000000004E-2</v>
+      </c>
+      <c r="N85">
+        <v>0.115</v>
+      </c>
+      <c r="O85">
+        <v>5.2100000000000002E-3</v>
+      </c>
+      <c r="P85" s="1">
         <v>7.7711100000000005E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>2019</v>
       </c>
@@ -4377,11 +5151,20 @@
       <c r="L86">
         <v>0.12094000000000001</v>
       </c>
-      <c r="M86" s="1">
+      <c r="M86">
+        <v>0.10057000000000001</v>
+      </c>
+      <c r="N86">
+        <v>0.14130999999999999</v>
+      </c>
+      <c r="O86">
+        <v>1.039E-2</v>
+      </c>
+      <c r="P86" s="1">
         <v>2.57859E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>2019</v>
       </c>
@@ -4415,11 +5198,20 @@
       <c r="L87">
         <v>0.14735999999999999</v>
       </c>
-      <c r="M87" s="1">
+      <c r="M87">
+        <v>0.12439</v>
+      </c>
+      <c r="N87">
+        <v>0.17033000000000001</v>
+      </c>
+      <c r="O87">
+        <v>1.172E-2</v>
+      </c>
+      <c r="P87" s="1">
         <v>2.8965000000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>2019</v>
       </c>
@@ -4453,11 +5245,20 @@
       <c r="L88">
         <v>8.7919999999999998E-2</v>
       </c>
-      <c r="M88" s="1">
+      <c r="M88">
+        <v>6.8790000000000004E-2</v>
+      </c>
+      <c r="N88">
+        <v>0.11072</v>
+      </c>
+      <c r="O88">
+        <v>1.035E-2</v>
+      </c>
+      <c r="P88" s="1">
         <v>1.4129299999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>2019</v>
       </c>
@@ -4491,11 +5292,20 @@
       <c r="L89">
         <v>0.13358</v>
       </c>
-      <c r="M89" s="1">
+      <c r="M89">
+        <v>9.9460000000000007E-2</v>
+      </c>
+      <c r="N89">
+        <v>0.17563000000000001</v>
+      </c>
+      <c r="O89">
+        <v>1.866E-2</v>
+      </c>
+      <c r="P89" s="1">
         <v>9.7138999999999993E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>2019</v>
       </c>
@@ -4529,11 +5339,20 @@
       <c r="L90">
         <v>0.10271</v>
       </c>
-      <c r="M90" s="1">
+      <c r="M90">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="N90">
+        <v>0.14424000000000001</v>
+      </c>
+      <c r="O90">
+        <v>1.7940000000000001E-2</v>
+      </c>
+      <c r="P90" s="1">
         <v>6.888E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>2019</v>
       </c>
@@ -4567,11 +5386,20 @@
       <c r="L91">
         <v>0.11214</v>
       </c>
-      <c r="M91" s="1">
+      <c r="M91">
+        <v>7.671E-2</v>
+      </c>
+      <c r="N91">
+        <v>0.15831000000000001</v>
+      </c>
+      <c r="O91">
+        <v>1.992E-2</v>
+      </c>
+      <c r="P91" s="1">
         <v>6.0048999999999996E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -4602,11 +5430,20 @@
       <c r="L92">
         <v>0.11434</v>
       </c>
-      <c r="M92" s="1">
+      <c r="M92">
+        <v>0.10417999999999999</v>
+      </c>
+      <c r="N92">
+        <v>0.1245</v>
+      </c>
+      <c r="O92">
+        <v>5.1799999999999997E-3</v>
+      </c>
+      <c r="P92" s="1">
         <v>9.1487100000000002E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>2020</v>
       </c>
@@ -4640,11 +5477,20 @@
       <c r="L93">
         <v>8.5559999999999997E-2</v>
       </c>
-      <c r="M93" s="1">
+      <c r="M93">
+        <v>6.9110000000000005E-2</v>
+      </c>
+      <c r="N93">
+        <v>0.10201</v>
+      </c>
+      <c r="O93">
+        <v>8.3899999999999999E-3</v>
+      </c>
+      <c r="P93" s="1">
         <v>1.9957599999999999E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>2020</v>
       </c>
@@ -4678,11 +5524,20 @@
       <c r="L94">
         <v>0.11882</v>
       </c>
-      <c r="M94" s="1">
+      <c r="M94">
+        <v>9.7650000000000001E-2</v>
+      </c>
+      <c r="N94">
+        <v>0.13999</v>
+      </c>
+      <c r="O94">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="P94" s="1">
         <v>2.2960100000000001E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>2020</v>
       </c>
@@ -4716,11 +5571,20 @@
       <c r="L95">
         <v>0.11198</v>
       </c>
-      <c r="M95" s="1">
+      <c r="M95">
+        <v>8.9679999999999996E-2</v>
+      </c>
+      <c r="N95">
+        <v>0.13428000000000001</v>
+      </c>
+      <c r="O95">
+        <v>1.1379999999999999E-2</v>
+      </c>
+      <c r="P95" s="1">
         <v>1.8368099999999998E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>2020</v>
       </c>
@@ -4754,11 +5618,20 @@
       <c r="L96">
         <v>0.12127</v>
       </c>
-      <c r="M96" s="1">
+      <c r="M96">
+        <v>8.9109999999999995E-2</v>
+      </c>
+      <c r="N96">
+        <v>0.16125999999999999</v>
+      </c>
+      <c r="O96">
+        <v>1.771E-2</v>
+      </c>
+      <c r="P96" s="1">
         <v>8.6542000000000008E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>2020</v>
       </c>
@@ -4792,11 +5665,20 @@
       <c r="L97">
         <v>0.12670000000000001</v>
       </c>
-      <c r="M97" s="1">
+      <c r="M97">
+        <v>9.4909999999999994E-2</v>
+      </c>
+      <c r="N97">
+        <v>0.16572999999999999</v>
+      </c>
+      <c r="O97">
+        <v>1.7430000000000001E-2</v>
+      </c>
+      <c r="P97" s="1">
         <v>9.7138999999999993E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>2020</v>
       </c>
@@ -4830,11 +5712,20 @@
       <c r="L98">
         <v>7.7369999999999994E-2</v>
       </c>
-      <c r="M98" s="1">
+      <c r="M98">
+        <v>4.9050000000000003E-2</v>
+      </c>
+      <c r="N98">
+        <v>0.11609999999999999</v>
+      </c>
+      <c r="O98">
+        <v>1.5970000000000002E-2</v>
+      </c>
+      <c r="P98" s="1">
         <v>4.4153999999999999E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -4865,11 +5756,20 @@
       <c r="L99">
         <v>0.11645999999999999</v>
       </c>
-      <c r="M99" s="1">
+      <c r="M99">
+        <v>0.10564</v>
+      </c>
+      <c r="N99">
+        <v>0.12728</v>
+      </c>
+      <c r="O99">
+        <v>5.5199999999999997E-3</v>
+      </c>
+      <c r="P99" s="1">
         <v>8.4069199999999997E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -4894,7 +5794,16 @@
       <c r="L100">
         <v>0.1048</v>
       </c>
-      <c r="M100" s="1">
+      <c r="M100">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="N100">
+        <v>0.1076</v>
+      </c>
+      <c r="O100">
+        <v>1.4300000000000001E-3</v>
+      </c>
+      <c r="P100" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4904,361 +5813,361 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="111.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="111.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
